--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed2/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.945499999999993</v>
+        <v>-7.024099999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.934899999999994</v>
+        <v>-8.856599999999997</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.285099999999996</v>
+        <v>-7.252899999999998</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.453999999999999</v>
+        <v>-8.426499999999995</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.299899999999997</v>
+        <v>-6.379499999999996</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.497499999999999</v>
+        <v>-8.474400000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.250099999999998</v>
+        <v>-8.2584</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.066399999999996</v>
+        <v>-7.010499999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.188</v>
+        <v>-6.168099999999999</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.905299999999999</v>
+        <v>-8.812199999999999</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.343899999999996</v>
+        <v>-6.498299999999996</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
